--- a/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3011637654518963</v>
+        <v>0.2984592656580338</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2745768302979138</v>
+        <v>0.2750305920243409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2952787449670123</v>
+        <v>0.2958255831751632</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3821861646220708</v>
+        <v>0.3748992567451559</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3306165690594035</v>
+        <v>0.3311600764513922</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3437174205752042</v>
+        <v>0.3439633962797266</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.4097138691985682</v>
+        <v>0.4097138691985683</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.4210771128683967</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.374886274322985</v>
+        <v>0.379091311502606</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3953573252544992</v>
+        <v>0.3938285423351745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3944288912692763</v>
+        <v>0.3948298909792055</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4434281594768238</v>
+        <v>0.4483774820233524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4498253402286451</v>
+        <v>0.4468618735945649</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4358050473213132</v>
+        <v>0.436922327650458</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.2792339777553802</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3492782547977267</v>
+        <v>0.3492782547977268</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3144657289839369</v>
+        <v>0.314465728983937</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2483389268121363</v>
+        <v>0.2470968483824039</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3183454294464153</v>
+        <v>0.3189571606341392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.292079984406057</v>
+        <v>0.291088094482115</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.314397741024726</v>
+        <v>0.3156173877520934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.383934884518857</v>
+        <v>0.3798491801688285</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3391964434183352</v>
+        <v>0.3390685247471503</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.4828861937569769</v>
+        <v>0.482886193756977</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.5130664476736853</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4989129756363108</v>
+        <v>0.4989129756363107</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4506389541507937</v>
+        <v>0.446989131696385</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4859835597829343</v>
+        <v>0.4859491117904179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4764650377276695</v>
+        <v>0.4758300300153027</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5154858868372071</v>
+        <v>0.5175953249947792</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.537775511645384</v>
+        <v>0.5395005913664382</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5199799861175088</v>
+        <v>0.5187927901276549</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.4095199791310917</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.398320894686972</v>
+        <v>0.3983208946869721</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3688522342952918</v>
+        <v>0.3690403679398234</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3956173498595965</v>
+        <v>0.3951705881044274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3875037269118186</v>
+        <v>0.3874425447406189</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4047048648953335</v>
+        <v>0.4045604902872216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4244171990395632</v>
+        <v>0.4237315365396638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4098017464990757</v>
+        <v>0.4099970890596111</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>207691</v>
+        <v>205826</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>201589</v>
+        <v>201922</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>420420</v>
+        <v>421199</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>263566</v>
+        <v>258541</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>242732</v>
+        <v>243131</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>489388</v>
+        <v>489738</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>392677</v>
+        <v>397081</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>422952</v>
+        <v>421317</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>835106</v>
+        <v>835955</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>464471</v>
+        <v>469655</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>481222</v>
+        <v>478052</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>922710</v>
+        <v>925075</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>199142</v>
+        <v>198146</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>258354</v>
+        <v>258850</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>471256</v>
+        <v>469655</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>252114</v>
+        <v>253092</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>311583</v>
+        <v>308267</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>547275</v>
+        <v>547069</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>445043</v>
+        <v>441438</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>543473</v>
+        <v>543434</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1003377</v>
+        <v>1002040</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>509085</v>
+        <v>511168</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>601392</v>
+        <v>603321</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1095014</v>
+        <v>1092514</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1300780</v>
+        <v>1301443</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1477166</v>
+        <v>1475498</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2813426</v>
+        <v>2812982</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1427216</v>
+        <v>1426707</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1584700</v>
+        <v>1582139</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2975318</v>
+        <v>2976736</v>
       </c>
     </row>
     <row r="24">
